--- a/cleaned/groww_mutual_fund_portfolio.xlsx
+++ b/cleaned/groww_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -493,15 +508,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE040A01034 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>INE040A01034</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>61275</t>
@@ -517,17 +532,20 @@
           <t>0.08721896809809923</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -541,15 +559,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE090A01021 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+          <t>INE090A01021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>78079</t>
@@ -565,17 +583,20 @@
           <t>0.0819623008915126</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -589,15 +610,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE009A01021 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+          <t>INE009A01021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>39012</t>
@@ -613,17 +634,20 @@
           <t>0.06144803724000856</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -637,15 +661,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE062A01020 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+          <t>INE062A01020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>87979</t>
@@ -661,17 +685,20 @@
           <t>0.05697711865811078</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -685,15 +712,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE397D01024 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+          <t>INE397D01024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>26785</t>
@@ -709,17 +736,20 @@
           <t>0.036499798524940695</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -733,15 +763,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE101A01026 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+          <t>INE101A01026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>13851</t>
@@ -757,17 +787,20 @@
           <t>0.03469993683160944</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -781,15 +814,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE121A01024 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>INE121A01024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>29402</t>
@@ -805,17 +838,20 @@
           <t>0.03167855308024201</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -829,15 +865,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE296A01024 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>INE296A01024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>4698</t>
@@ -853,17 +889,20 @@
           <t>0.031039761271900865</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -877,15 +916,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE646L01027 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>INE646L01027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>8379</t>
@@ -901,17 +940,20 @@
           <t>0.030360658169402133</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -925,15 +967,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE018A01030 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+          <t>INE018A01030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>10135</t>
@@ -949,17 +991,20 @@
           <t>0.030295192436646388</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -973,15 +1018,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE481G01011 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>INE481G01011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>3133</t>
@@ -997,17 +1042,20 @@
           <t>0.030156586665331025</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1021,15 +1069,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE134E01011 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>INE134E01011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>83707</t>
@@ -1045,17 +1093,20 @@
           <t>0.029633752215441563</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1069,15 +1120,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE467B01029 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>INE467B01029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>8349</t>
@@ -1093,17 +1144,20 @@
           <t>0.028769211964766592</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1117,15 +1171,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE280A01028 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>INE280A01028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>8931</t>
@@ -1141,17 +1195,20 @@
           <t>0.02611889380494864</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1165,15 +1222,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE066A01021 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>INE066A01021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>5118</t>
@@ -1189,17 +1246,20 @@
           <t>0.022275397619634377</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1213,15 +1273,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE059A01026 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+          <t>INE059A01026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>17359</t>
@@ -1237,17 +1297,20 @@
           <t>0.021518325468875717</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1261,15 +1324,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE326A01037 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>12177</t>
@@ -1285,17 +1348,20 @@
           <t>0.021227348171369117</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1309,15 +1375,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE263A01024 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>INE263A01024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>84984</t>
@@ -1333,17 +1399,20 @@
           <t>0.02083933477220562</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1357,15 +1426,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE118A01012 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>INE118A01012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>2105</t>
@@ -1381,17 +1450,20 @@
           <t>0.020389041882582063</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1405,15 +1477,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE237A01028 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>12634</t>
@@ -1429,17 +1501,20 @@
           <t>0.020127492581836076</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1453,15 +1528,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE685A01028 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+          <t>INE685A01028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>7266</t>
@@ -1477,17 +1552,20 @@
           <t>0.019903147138529205</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1501,15 +1579,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE089A01031 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+          <t>INE089A01031</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>19092</t>
@@ -1525,17 +1603,20 @@
           <t>0.0194744427875044</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1549,15 +1630,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE585B01010 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+          <t>INE585B01010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>1729</t>
@@ -1573,17 +1654,20 @@
           <t>0.017835041818050845</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1597,15 +1681,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE214T01019 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>INE214T01019</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>3538</t>
@@ -1621,17 +1705,20 @@
           <t>0.01753268048723082</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1645,15 +1732,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE028A01039 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+          <t>INE028A01039</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>94547</t>
@@ -1669,17 +1756,20 @@
           <t>0.016905186683828694</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1693,15 +1783,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE117A01022 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+          <t>INE117A01022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>2977</t>
@@ -1717,17 +1807,20 @@
           <t>0.014654094452760454</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1741,15 +1834,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE775A01035 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>INE775A01035</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>112293</t>
@@ -1765,17 +1858,20 @@
           <t>0.013291378968335441</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1789,15 +1885,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE262H01021 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+          <t>INE262H01021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>2091</t>
@@ -1813,17 +1909,20 @@
           <t>0.010569555342587949</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1837,15 +1936,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE079A01024 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>INE079A01024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>23740</t>
@@ -1861,17 +1960,20 @@
           <t>0.010200627430874572</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1885,15 +1987,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE0ONG01011 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>INE0ONG01011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>104256</t>
@@ -1909,17 +2011,20 @@
           <t>0.010038227578671424</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1933,15 +2038,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE733E01010 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>INE733E01010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>36865</t>
@@ -1957,17 +2062,20 @@
           <t>0.010008232893979657</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -1981,15 +2089,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE591G01017 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>INE591G01017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>1444</t>
@@ -2005,17 +2113,20 @@
           <t>0.009998797507666404</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2029,15 +2140,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE044A01036 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>INE044A01036</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>6607</t>
@@ -2053,17 +2164,20 @@
           <t>0.009654649027256323</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2077,15 +2191,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE758T01015 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>INE758T01015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>49117</t>
@@ -2101,17 +2215,20 @@
           <t>0.00906865838009726</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2125,15 +2242,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE0JO301016 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+          <t>INE0JO301016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>21268</t>
@@ -2149,17 +2266,20 @@
           <t>0.007605875582106653</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  a Listed  awaiting listing on the stock exchanges       </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY &amp; EQUITY RELATED nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2173,7 +2293,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">INF666M01451 </t>
+          <t>INF666M01451</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2193,17 +2313,20 @@
           <t>0.039877694476165355</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Mutual Fund Units       </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>IB01</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mutual Fund Units nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>IB01</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2217,45 +2340,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE121A07QJ0 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>INE121A07QJ0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ICRA AA+</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>998.532</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.05547919112873611</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>998.532</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.05547919112873611</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Non Convertible Debentures  Bonds       </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Non Convertible Debentures  Bonds nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2269,45 +2395,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE115A07PQ9 </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+          <t>INE115A07PQ9</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>998.096</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0554549666398543</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>7.4%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>998.096</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0554549666398543</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Non Convertible Debentures  Bonds       </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Non Convertible Debentures  Bonds nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2321,45 +2450,48 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE053F09GV6 </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>INE053F09GV6</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>500.6985</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.02781918634492583</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>7.37%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>500.6985</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.02781918634492583</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Non Convertible Debentures  Bonds       </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Non Convertible Debentures  Bonds nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2373,45 +2505,48 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE040A08518 </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>INE040A08518</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>500.056</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.027783488560277753</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>7.68%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>500.056</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.027783488560277753</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Non Convertible Debentures  Bonds       </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Non Convertible Debentures  Bonds nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2425,45 +2560,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE020B08CK8 </t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>INE020B08CK8</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>420000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>419.59512</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.023313021374542792</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>7.63%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>420000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>419.59512</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.023313021374542792</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Non Convertible Debentures  Bonds       </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Non Convertible Debentures  Bonds nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2477,45 +2615,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN002024X433 </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>IN002024X433</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1476.5445</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.08203792620124753</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>6.52%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1500000</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1476.5445</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.08203792620124753</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Treasury Bills       </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bills nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2529,45 +2670,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN002024X359 </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>IN002024X359</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>994.247</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.05524111329649174</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>6.4%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>994.247</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.05524111329649174</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Treasury Bills       </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bills nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2581,45 +2725,48 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN002024X425 </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>IN002024X425</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>985.578</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.054759457117325716</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>6.51%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>985.578</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.054759457117325716</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Treasury Bills       </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bills nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2633,45 +2780,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE763G14TN8 </t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>INE763G14TN8</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>496.5445</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.027588386971496865</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>7.7%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>496.5445</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.027588386971496865</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Commercial Papers       </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2685,45 +2835,48 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE700G14MD6 </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>INE700G14MD6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>488.8583</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.027161335901672672</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>7.75%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>490000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>488.8583</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.027161335901672672</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Commercial Papers       </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2737,45 +2890,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE514E14SK8 </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>INE514E14SK8</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1490.7825</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.08282900022119977</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1500000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1490.7825</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.08282900022119977</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Commercial Papers       </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2789,45 +2945,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE763G14TE7 </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>INE763G14TE7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>995.792</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.05532695466191007</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>7.71%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>995.792</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.05532695466191007</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Commercial Papers       </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2841,45 +3000,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE261F16835 </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+          <t>INE261F16835</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>496.614</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.027592248443921833</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>496.614</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.027592248443921833</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2893,45 +3055,48 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE476A16YZ9 </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+          <t>INE476A16YZ9</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>900000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>895.1922</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.04973755388986408</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>7.26%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>900000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>895.1922</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.04973755388986408</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2945,45 +3110,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE692A16GY1 </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>INE692A16GY1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>995.236</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.055296062882510336</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>995.236</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.055296062882510336</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -2997,45 +3165,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE562A16MR8 </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+          <t>INE562A16MR8</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>992.085</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.05512099094566039</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>992.085</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.05512099094566039</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -3049,45 +3220,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE160A16OP1 </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+          <t>INE160A16OP1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1450000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1439.0641</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.07995548690517942</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>7.3%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1450000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1439.0641</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.07995548690517942</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -3101,45 +3275,48 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE040A16EU6 </t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+          <t>INE040A16EU6</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CARE A1+</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>992.281</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.05513188085350634</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>992.281</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.05513188085350634</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -3153,45 +3330,48 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE090AD6121 </t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+          <t>INE090AD6121</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>995.255</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.05529711853684234</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>995.255</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.05529711853684234</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Certificate of Deposits       </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposits nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -3205,7 +3385,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">INF0RQ622028 </t>
+          <t>INF0RQ622028</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3225,17 +3405,20 @@
           <t>0.0030593441651257857</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Alternative Investment Fund Units       </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alternative Investment Fund Units nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
@@ -3249,7 +3432,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTREP030225 </t>
+          <t>INTREP030225</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3269,17 +3452,20 @@
           <t>0.03226905975927912</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  TREPS  Reverse Repo Investments  Corporate Debt Repo       </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TREPS  Reverse Repo Investments  Corporate Debt Repo nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>IB02</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>Groww Mutual Fund</t>
         </is>
